--- a/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.44879405719883</v>
+        <v>13.85955650277073</v>
       </c>
       <c r="C2">
-        <v>15.13922555114887</v>
+        <v>7.877718822632551</v>
       </c>
       <c r="D2">
-        <v>9.706745442570206</v>
+        <v>10.54566321321749</v>
       </c>
       <c r="E2">
-        <v>30.1855736392513</v>
+        <v>29.22213879625076</v>
       </c>
       <c r="F2">
-        <v>63.40406030866881</v>
+        <v>64.1238170625267</v>
       </c>
       <c r="G2">
-        <v>2.038789477076198</v>
+        <v>2.097727885959582</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.05390941246359</v>
+        <v>12.34021683542027</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80661145293553</v>
+        <v>12.81410379899892</v>
       </c>
       <c r="C3">
-        <v>13.98261967373159</v>
+        <v>7.290420831100562</v>
       </c>
       <c r="D3">
-        <v>9.20833925051773</v>
+        <v>10.08885564833401</v>
       </c>
       <c r="E3">
-        <v>27.82367688212937</v>
+        <v>27.00974645894351</v>
       </c>
       <c r="F3">
-        <v>59.31068531041522</v>
+        <v>60.42350809916155</v>
       </c>
       <c r="G3">
-        <v>2.055256686889114</v>
+        <v>2.110379344578891</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.62143472826206</v>
+        <v>11.43838678255556</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75971030862796</v>
+        <v>12.14487692265738</v>
       </c>
       <c r="C4">
-        <v>13.24797362124222</v>
+        <v>6.917030431193877</v>
       </c>
       <c r="D4">
-        <v>8.899004775940696</v>
+        <v>9.802967662794206</v>
       </c>
       <c r="E4">
-        <v>26.32738167983716</v>
+        <v>25.5982802383252</v>
       </c>
       <c r="F4">
-        <v>56.73537609151794</v>
+        <v>58.08471870783401</v>
       </c>
       <c r="G4">
-        <v>2.065418576752478</v>
+        <v>2.118247050400991</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.70859024083423</v>
+        <v>10.86135270024674</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.32287275084706</v>
+        <v>11.86508348315788</v>
       </c>
       <c r="C5">
-        <v>12.94199838917121</v>
+        <v>6.761481963420876</v>
       </c>
       <c r="D5">
-        <v>8.772045180555864</v>
+        <v>9.685102888849469</v>
       </c>
       <c r="E5">
-        <v>25.705019115987</v>
+        <v>25.00912561261854</v>
       </c>
       <c r="F5">
-        <v>55.66988659038832</v>
+        <v>57.11499412373422</v>
       </c>
       <c r="G5">
-        <v>2.069582030743736</v>
+        <v>2.121483249008945</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.32774495120815</v>
+        <v>10.62013735977565</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24970548361511</v>
+        <v>11.81819087076451</v>
       </c>
       <c r="C6">
-        <v>12.89078086289416</v>
+        <v>6.735443867269346</v>
       </c>
       <c r="D6">
-        <v>8.750907738792961</v>
+        <v>9.665449479824723</v>
       </c>
       <c r="E6">
-        <v>25.60088744744859</v>
+        <v>24.91043594039932</v>
       </c>
       <c r="F6">
-        <v>55.49198767171904</v>
+        <v>56.95297483523027</v>
       </c>
       <c r="G6">
-        <v>2.070274977719454</v>
+        <v>2.122022567650285</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.26395823155015</v>
+        <v>10.57971145730306</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75386095848462</v>
+        <v>12.14113244744224</v>
       </c>
       <c r="C7">
-        <v>13.24387440431125</v>
+        <v>6.914946587117436</v>
       </c>
       <c r="D7">
-        <v>8.897296277534881</v>
+        <v>9.801383606735413</v>
       </c>
       <c r="E7">
-        <v>26.31904058704692</v>
+        <v>25.59039204625535</v>
       </c>
       <c r="F7">
-        <v>56.72107179514081</v>
+        <v>58.07170772999952</v>
       </c>
       <c r="G7">
-        <v>2.065474624126697</v>
+        <v>2.118290567053943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.70349046778997</v>
+        <v>10.85812442103429</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.89024809584959</v>
+        <v>13.50461887623752</v>
       </c>
       <c r="C8">
-        <v>14.74522286373904</v>
+        <v>7.677761759295934</v>
       </c>
       <c r="D8">
-        <v>9.535527022015399</v>
+        <v>10.38926932953432</v>
       </c>
       <c r="E8">
-        <v>29.38009162412961</v>
+        <v>28.46991380393672</v>
       </c>
       <c r="F8">
-        <v>62.00515133384364</v>
+        <v>62.86183254891111</v>
       </c>
       <c r="G8">
-        <v>2.044463010615939</v>
+        <v>2.102072602324935</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.56659367535154</v>
+        <v>12.0339707473161</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.80116222095908</v>
+        <v>15.97270660469032</v>
       </c>
       <c r="C9">
-        <v>17.51901080027195</v>
+        <v>9.081183224594119</v>
       </c>
       <c r="D9">
-        <v>10.76644341766139</v>
+        <v>11.50060020313689</v>
       </c>
       <c r="E9">
-        <v>35.07302946640706</v>
+        <v>33.72848150236941</v>
       </c>
       <c r="F9">
-        <v>71.9147564001602</v>
+        <v>71.73055494194213</v>
       </c>
       <c r="G9">
-        <v>2.003143063211508</v>
+        <v>2.070801449576751</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.98165720067997</v>
+        <v>14.16557047176945</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.55289449427463</v>
+        <v>17.67880040255701</v>
       </c>
       <c r="C10">
-        <v>19.49474683774806</v>
+        <v>10.0707043383839</v>
       </c>
       <c r="D10">
-        <v>11.67059874479218</v>
+        <v>12.29574255579062</v>
       </c>
       <c r="E10">
-        <v>39.16584465516084</v>
+        <v>37.4094044319177</v>
       </c>
       <c r="F10">
-        <v>79.00684777146012</v>
+        <v>77.95118851606007</v>
       </c>
       <c r="G10">
-        <v>1.971802299432376</v>
+        <v>2.047726048535091</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.38985848347887</v>
+        <v>15.64280674083355</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.79296876172566</v>
+        <v>18.43671821547934</v>
       </c>
       <c r="C11">
-        <v>20.39280438949842</v>
+        <v>10.51595494924174</v>
       </c>
       <c r="D11">
-        <v>12.08634643069309</v>
+        <v>12.65436633784723</v>
       </c>
       <c r="E11">
-        <v>41.03932165966403</v>
+        <v>39.05955641110484</v>
       </c>
       <c r="F11">
-        <v>82.23679346513413</v>
+        <v>80.72765941277196</v>
       </c>
       <c r="G11">
-        <v>1.957051110498241</v>
+        <v>2.037088252902143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.47701404693575</v>
+        <v>16.30031406076174</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.26253241429277</v>
+        <v>18.72162691865889</v>
       </c>
       <c r="C12">
-        <v>20.73422887971967</v>
+        <v>10.68428516123184</v>
       </c>
       <c r="D12">
-        <v>12.24496545586195</v>
+        <v>12.78990534453297</v>
       </c>
       <c r="E12">
-        <v>41.75405933061266</v>
+        <v>39.68253547095798</v>
       </c>
       <c r="F12">
-        <v>83.49310755992187</v>
+        <v>81.77265684761484</v>
       </c>
       <c r="G12">
-        <v>1.951362132139559</v>
+        <v>2.033027463597001</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.88902378971647</v>
+        <v>16.54770076123674</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.16137288249596</v>
+        <v>18.66035069262789</v>
       </c>
       <c r="C13">
-        <v>20.66060907268607</v>
+        <v>10.64803679796366</v>
       </c>
       <c r="D13">
-        <v>12.21074060438329</v>
+        <v>12.76072290011979</v>
       </c>
       <c r="E13">
-        <v>41.59982197885316</v>
+        <v>39.54842090922009</v>
       </c>
       <c r="F13">
-        <v>83.22241207868896</v>
+        <v>81.54785787794808</v>
       </c>
       <c r="G13">
-        <v>1.952592551462627</v>
+        <v>2.033903694491131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.80024628255446</v>
+        <v>16.49448383351052</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.83158931193781</v>
+        <v>18.46019654497271</v>
       </c>
       <c r="C14">
-        <v>20.42085665170233</v>
+        <v>10.52980636381285</v>
       </c>
       <c r="D14">
-        <v>12.09936858044112</v>
+        <v>12.66552128521662</v>
       </c>
       <c r="E14">
-        <v>41.09799256519121</v>
+        <v>39.11083689026047</v>
       </c>
       <c r="F14">
-        <v>82.34010186629691</v>
+        <v>80.81375143864315</v>
       </c>
       <c r="G14">
-        <v>1.95658535713039</v>
+        <v>2.036754899593709</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.51089339974252</v>
+        <v>16.3206955848856</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.62964147414486</v>
+        <v>18.33734020114859</v>
       </c>
       <c r="C15">
-        <v>20.2742276255876</v>
+        <v>10.45736493410755</v>
       </c>
       <c r="D15">
-        <v>12.031323600193</v>
+        <v>12.60717940236582</v>
       </c>
       <c r="E15">
-        <v>40.79142395445425</v>
+        <v>38.84261031460015</v>
       </c>
       <c r="F15">
-        <v>81.7999442263242</v>
+        <v>80.36330186017408</v>
       </c>
       <c r="G15">
-        <v>1.959016538070654</v>
+        <v>2.038496707970573</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.33375204169928</v>
+        <v>16.21405337693335</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.47174843459967</v>
+        <v>17.6289446168209</v>
       </c>
       <c r="C16">
-        <v>19.43615707296661</v>
+        <v>10.04154234433967</v>
       </c>
       <c r="D16">
-        <v>11.64356066576235</v>
+        <v>12.27225772869728</v>
       </c>
       <c r="E16">
-        <v>39.04392714556043</v>
+        <v>37.30120286040043</v>
       </c>
       <c r="F16">
-        <v>78.79673456735536</v>
+        <v>77.76876743014284</v>
       </c>
       <c r="G16">
-        <v>1.972753854194641</v>
+        <v>2.048417429571088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.31876327187521</v>
+        <v>15.59958497170111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.75946125908247</v>
+        <v>17.19004537500432</v>
       </c>
       <c r="C17">
-        <v>18.92275391830592</v>
+        <v>9.785474458503471</v>
       </c>
       <c r="D17">
-        <v>11.4071530996274</v>
+        <v>12.06611535219726</v>
       </c>
       <c r="E17">
-        <v>37.97711954025457</v>
+        <v>36.35040637231811</v>
       </c>
       <c r="F17">
-        <v>76.95463857231272</v>
+        <v>76.16424285958236</v>
       </c>
       <c r="G17">
-        <v>1.981034683022793</v>
+        <v>2.05445945426011</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.69492114874079</v>
+        <v>15.21923447813492</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.34854937683108</v>
+        <v>16.93585355736098</v>
       </c>
       <c r="C18">
-        <v>18.6272838076495</v>
+        <v>9.637701046415632</v>
       </c>
       <c r="D18">
-        <v>11.27155446111354</v>
+        <v>11.94724326948085</v>
       </c>
       <c r="E18">
-        <v>37.36434590094999</v>
+        <v>35.80113138149256</v>
       </c>
       <c r="F18">
-        <v>75.89392689301877</v>
+        <v>75.2362469810414</v>
       </c>
       <c r="G18">
-        <v>1.985753442115302</v>
+        <v>2.057922285128603</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.33520582571412</v>
+        <v>14.99906861339972</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.20916836248328</v>
+        <v>16.84947405577971</v>
       </c>
       <c r="C19">
-        <v>18.52717502145532</v>
+        <v>9.587571710993251</v>
       </c>
       <c r="D19">
-        <v>11.22569397188584</v>
+        <v>11.9069382506357</v>
       </c>
       <c r="E19">
-        <v>37.15692006764245</v>
+        <v>35.61470036632031</v>
       </c>
       <c r="F19">
-        <v>75.53448843603985</v>
+        <v>74.92113179039951</v>
       </c>
       <c r="G19">
-        <v>1.987344380804143</v>
+        <v>2.059092948683817</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.21321834736625</v>
+        <v>14.92427069641495</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.83540149478487</v>
+        <v>17.23694448436325</v>
       </c>
       <c r="C20">
-        <v>18.97741537794397</v>
+        <v>9.812781208276144</v>
       </c>
       <c r="D20">
-        <v>11.43227670842682</v>
+        <v>12.08808992269221</v>
       </c>
       <c r="E20">
-        <v>38.09057482005398</v>
+        <v>36.45185836190883</v>
       </c>
       <c r="F20">
-        <v>77.15083218769919</v>
+        <v>76.33556860661457</v>
       </c>
       <c r="G20">
-        <v>1.98015794731056</v>
+        <v>2.05381763302869</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.76141341592465</v>
+        <v>15.25986492265206</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.92843978085469</v>
+        <v>18.51903897717073</v>
       </c>
       <c r="C21">
-        <v>20.49122735849883</v>
+        <v>10.56453717855506</v>
       </c>
       <c r="D21">
-        <v>12.1320438157373</v>
+        <v>12.69348977511485</v>
       </c>
       <c r="E21">
-        <v>41.24521369951402</v>
+        <v>39.23940293087072</v>
       </c>
       <c r="F21">
-        <v>82.59918996323736</v>
+        <v>81.02953773641919</v>
       </c>
       <c r="G21">
-        <v>1.95541567216919</v>
+        <v>2.035918423430066</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.59586002907026</v>
+        <v>16.37178038546273</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.29737801788523</v>
+        <v>19.34505167537053</v>
       </c>
       <c r="C22">
-        <v>21.48948691152208</v>
+        <v>11.05450753807047</v>
       </c>
       <c r="D22">
-        <v>12.59668954442931</v>
+        <v>13.08773832304826</v>
       </c>
       <c r="E22">
-        <v>43.34043586537582</v>
+        <v>41.05118049739585</v>
       </c>
       <c r="F22">
-        <v>86.26334829473858</v>
+        <v>84.06093779563648</v>
       </c>
       <c r="G22">
-        <v>1.938622038751351</v>
+        <v>2.024023253354891</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.7977619602671</v>
+        <v>17.08947382758577</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.56597040418195</v>
+        <v>18.90508343905093</v>
       </c>
       <c r="C23">
-        <v>20.95527870378624</v>
+        <v>10.79295919910309</v>
       </c>
       <c r="D23">
-        <v>12.34779758410972</v>
+        <v>12.87737608822606</v>
       </c>
       <c r="E23">
-        <v>42.21758318911981</v>
+        <v>40.08449410800627</v>
       </c>
       <c r="F23">
-        <v>84.30521294501453</v>
+        <v>82.44582817268743</v>
       </c>
       <c r="G23">
-        <v>1.947655424939252</v>
+        <v>2.030394697474126</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.15537785357799</v>
+        <v>16.70706391916245</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.80107341945054</v>
+        <v>17.21574723693564</v>
       </c>
       <c r="C24">
-        <v>18.95270399408849</v>
+        <v>9.800437591311436</v>
       </c>
       <c r="D24">
-        <v>11.42091738154663</v>
+        <v>12.07815634764454</v>
       </c>
       <c r="E24">
-        <v>38.03928023655421</v>
+        <v>36.4060002857472</v>
       </c>
       <c r="F24">
-        <v>77.06213850980652</v>
+        <v>76.25812956293015</v>
       </c>
       <c r="G24">
-        <v>1.980554448070535</v>
+        <v>2.054107833185187</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.73135567297186</v>
+        <v>15.24150059793919</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.76861226295445</v>
+        <v>15.32534258410977</v>
       </c>
       <c r="C25">
-        <v>16.78309700436547</v>
+        <v>8.710033840256374</v>
       </c>
       <c r="D25">
-        <v>10.43464651616474</v>
+        <v>11.20410068181421</v>
       </c>
       <c r="E25">
-        <v>33.55723982304617</v>
+        <v>32.34241105512557</v>
       </c>
       <c r="F25">
-        <v>69.27524382688102</v>
+        <v>69.38585310746174</v>
       </c>
       <c r="G25">
-        <v>2.014415888910989</v>
+        <v>2.079243927110146</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.07928174726437</v>
+        <v>13.60593272835668</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.85955650277073</v>
+        <v>13.63443363620444</v>
       </c>
       <c r="C2">
-        <v>7.877718822632551</v>
+        <v>9.323714996673335</v>
       </c>
       <c r="D2">
-        <v>10.54566321321749</v>
+        <v>4.52349368296375</v>
       </c>
       <c r="E2">
-        <v>29.22213879625076</v>
+        <v>28.43498935461029</v>
       </c>
       <c r="F2">
-        <v>64.1238170625267</v>
+        <v>24.16271448355245</v>
       </c>
       <c r="G2">
-        <v>2.097727885959582</v>
+        <v>33.49324153395113</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.627808080162262</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.09783122245693</v>
       </c>
       <c r="K2">
-        <v>12.34021683542027</v>
+        <v>16.84628188510197</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.74411093851313</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +465,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81410379899892</v>
+        <v>12.76824777305549</v>
       </c>
       <c r="C3">
-        <v>7.290420831100562</v>
+        <v>8.73833172099927</v>
       </c>
       <c r="D3">
-        <v>10.08885564833401</v>
+        <v>4.471146311505629</v>
       </c>
       <c r="E3">
-        <v>27.00974645894351</v>
+        <v>26.52288376334341</v>
       </c>
       <c r="F3">
-        <v>60.42350809916155</v>
+        <v>23.41921175793576</v>
       </c>
       <c r="G3">
-        <v>2.110379344578891</v>
+        <v>32.3497715882216</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.357236406744417</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.98911355696365</v>
       </c>
       <c r="K3">
-        <v>11.43838678255556</v>
+        <v>16.71624593105536</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.99488328480369</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +515,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.14487692265738</v>
+        <v>12.20643949525503</v>
       </c>
       <c r="C4">
-        <v>6.917030431193877</v>
+        <v>8.359582628368594</v>
       </c>
       <c r="D4">
-        <v>9.802967662794206</v>
+        <v>4.437482795777373</v>
       </c>
       <c r="E4">
-        <v>25.5982802383252</v>
+        <v>25.2824819293605</v>
       </c>
       <c r="F4">
-        <v>58.08471870783401</v>
+        <v>22.96727247609152</v>
       </c>
       <c r="G4">
-        <v>2.118247050400991</v>
+        <v>31.65219846680461</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.185762302881458</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.92749372780898</v>
       </c>
       <c r="K4">
-        <v>10.86135270024674</v>
+        <v>16.64610652477264</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.51096176060826</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +565,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.86508348315788</v>
+        <v>11.96995437153079</v>
       </c>
       <c r="C5">
-        <v>6.761481963420876</v>
+        <v>8.200386876458875</v>
       </c>
       <c r="D5">
-        <v>9.685102888849469</v>
+        <v>4.423389018746055</v>
       </c>
       <c r="E5">
-        <v>25.00912561261854</v>
+        <v>24.7602207453073</v>
       </c>
       <c r="F5">
-        <v>57.11499412373422</v>
+        <v>22.78443315548251</v>
       </c>
       <c r="G5">
-        <v>2.121483249008945</v>
+        <v>31.36934988015538</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.114511022019727</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.90364070206777</v>
       </c>
       <c r="K5">
-        <v>10.62013735977565</v>
+        <v>16.61987850852296</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.30779339741041</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +615,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81819087076451</v>
+        <v>11.93023053827826</v>
       </c>
       <c r="C6">
-        <v>6.735443867269346</v>
+        <v>8.173659851885462</v>
       </c>
       <c r="D6">
-        <v>9.665449479824723</v>
+        <v>4.421026284504793</v>
       </c>
       <c r="E6">
-        <v>24.91043594039932</v>
+        <v>24.6724829632885</v>
       </c>
       <c r="F6">
-        <v>56.95297483523027</v>
+        <v>22.75415850247018</v>
       </c>
       <c r="G6">
-        <v>2.122022567650285</v>
+        <v>31.32247727140145</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.102595924345496</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.8997548743095</v>
       </c>
       <c r="K6">
-        <v>10.57971145730306</v>
+        <v>16.61566301169599</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.27369866292713</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +665,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14113244744224</v>
+        <v>12.20328072194725</v>
       </c>
       <c r="C7">
-        <v>6.914946587117436</v>
+        <v>8.357455290558665</v>
       </c>
       <c r="D7">
-        <v>9.801383606735413</v>
+        <v>4.437294233462322</v>
       </c>
       <c r="E7">
-        <v>25.59039204625535</v>
+        <v>25.27550663183012</v>
       </c>
       <c r="F7">
-        <v>58.07170772999952</v>
+        <v>22.96480101542274</v>
       </c>
       <c r="G7">
-        <v>2.118290567053943</v>
+        <v>31.64837774621024</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.18480698720343</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.9271669908915</v>
       </c>
       <c r="K7">
-        <v>10.85812442103429</v>
+        <v>16.64574338680744</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.50824585070646</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +715,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50461887623752</v>
+        <v>13.34198415177245</v>
       </c>
       <c r="C8">
-        <v>7.677761759295934</v>
+        <v>9.125885521167405</v>
       </c>
       <c r="D8">
-        <v>10.38926932953432</v>
+        <v>4.505764377058472</v>
       </c>
       <c r="E8">
-        <v>28.46991380393672</v>
+        <v>27.78940599437246</v>
       </c>
       <c r="F8">
-        <v>62.86183254891111</v>
+        <v>23.90551029883513</v>
       </c>
       <c r="G8">
-        <v>2.102072602324935</v>
+        <v>33.09819723272533</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.535604654243386</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.05926043402789</v>
       </c>
       <c r="K8">
-        <v>12.0339707473161</v>
+        <v>16.79938088399949</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.49075570157537</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +765,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.97270660469032</v>
+        <v>15.33809390176014</v>
       </c>
       <c r="C9">
-        <v>9.081183224594119</v>
+        <v>10.47970698575684</v>
       </c>
       <c r="D9">
-        <v>11.50060020313689</v>
+        <v>4.627659123508573</v>
       </c>
       <c r="E9">
-        <v>33.72848150236941</v>
+        <v>32.19749638925871</v>
       </c>
       <c r="F9">
-        <v>71.73055494194213</v>
+        <v>25.77921580266321</v>
       </c>
       <c r="G9">
-        <v>2.070801449576751</v>
+        <v>35.965993686944</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.182604934305439</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.36044749121412</v>
       </c>
       <c r="K9">
-        <v>14.16557047176945</v>
+        <v>17.18135894262651</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.22691160150057</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +815,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.67880040255701</v>
+        <v>16.66342238575121</v>
       </c>
       <c r="C10">
-        <v>10.0707043383839</v>
+        <v>11.33903541900473</v>
       </c>
       <c r="D10">
-        <v>12.29574255579062</v>
+        <v>4.736996387514248</v>
       </c>
       <c r="E10">
-        <v>37.4094044319177</v>
+        <v>34.24369724580941</v>
       </c>
       <c r="F10">
-        <v>77.95118851606007</v>
+        <v>26.92440518124285</v>
       </c>
       <c r="G10">
-        <v>2.047726048535091</v>
+        <v>37.64569266136989</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.597726924693731</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.52335149790356</v>
       </c>
       <c r="K10">
-        <v>15.64280674083355</v>
+        <v>17.35965672840499</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.37196404021985</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +865,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43671821547934</v>
+        <v>17.25158930687842</v>
       </c>
       <c r="C11">
-        <v>10.51595494924174</v>
+        <v>11.34801034149064</v>
       </c>
       <c r="D11">
-        <v>12.65436633784723</v>
+        <v>5.054741117821443</v>
       </c>
       <c r="E11">
-        <v>39.05955641110484</v>
+        <v>27.61472135575491</v>
       </c>
       <c r="F11">
-        <v>80.72765941277196</v>
+        <v>25.37679288279821</v>
       </c>
       <c r="G11">
-        <v>2.037088252902143</v>
+        <v>34.71870448800804</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.032193506388904</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.86387469323396</v>
       </c>
       <c r="K11">
-        <v>16.30031406076174</v>
+        <v>16.1116185867125</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.75222523746375</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +915,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.72162691865889</v>
+        <v>17.48410162598736</v>
       </c>
       <c r="C12">
-        <v>10.68428516123184</v>
+        <v>11.18491016740444</v>
       </c>
       <c r="D12">
-        <v>12.78990534453297</v>
+        <v>5.335263601184043</v>
       </c>
       <c r="E12">
-        <v>39.68253547095798</v>
+        <v>21.59748600132349</v>
       </c>
       <c r="F12">
-        <v>81.77265684761484</v>
+        <v>23.8067458535491</v>
       </c>
       <c r="G12">
-        <v>2.033027463597001</v>
+        <v>31.8590732125663</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.93156585123291</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.2712752340531</v>
       </c>
       <c r="K12">
-        <v>16.54770076123674</v>
+        <v>15.02616179328717</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.84568832995435</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +965,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.66035069262789</v>
+        <v>17.46486067748274</v>
       </c>
       <c r="C13">
-        <v>10.64803679796366</v>
+        <v>10.87565663553644</v>
       </c>
       <c r="D13">
-        <v>12.76072290011979</v>
+        <v>5.597493556096826</v>
       </c>
       <c r="E13">
-        <v>39.54842090922009</v>
+        <v>15.53259776675079</v>
       </c>
       <c r="F13">
-        <v>81.54785787794808</v>
+        <v>22.08974720465276</v>
       </c>
       <c r="G13">
-        <v>2.033903694491131</v>
+        <v>28.81227571740371</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.026815503540697</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.692228265559839</v>
       </c>
       <c r="K13">
-        <v>16.49448383351052</v>
+        <v>14.00060014260163</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.72745817342092</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1015,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.46019654497271</v>
+        <v>17.33827358376848</v>
       </c>
       <c r="C14">
-        <v>10.52980636381285</v>
+        <v>10.5903615187021</v>
       </c>
       <c r="D14">
-        <v>12.66552128521662</v>
+        <v>5.774161849915506</v>
       </c>
       <c r="E14">
-        <v>39.11083689026047</v>
+        <v>11.26290546757948</v>
       </c>
       <c r="F14">
-        <v>80.81375143864315</v>
+        <v>20.81005392934239</v>
       </c>
       <c r="G14">
-        <v>2.036754899593709</v>
+        <v>26.57441036719388</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.867061313442941</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.296733984942824</v>
       </c>
       <c r="K14">
-        <v>16.3206955848856</v>
+        <v>13.32160846607747</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.54857151419309</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1065,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33734020114859</v>
+        <v>17.25244441816909</v>
       </c>
       <c r="C15">
-        <v>10.45736493410755</v>
+        <v>10.48778867425011</v>
       </c>
       <c r="D15">
-        <v>12.60717940236582</v>
+        <v>5.808886846131355</v>
       </c>
       <c r="E15">
-        <v>38.84261031460015</v>
+        <v>10.21155352984648</v>
       </c>
       <c r="F15">
-        <v>80.36330186017408</v>
+        <v>20.4681153518571</v>
       </c>
       <c r="G15">
-        <v>2.038496707970573</v>
+        <v>25.99076110435045</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.059650512401465</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.204344153149282</v>
       </c>
       <c r="K15">
-        <v>16.21405337693335</v>
+        <v>13.17046181819758</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.45828622262256</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1115,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.6289446168209</v>
+        <v>16.71622266344857</v>
       </c>
       <c r="C16">
-        <v>10.04154234433967</v>
+        <v>10.17635992519292</v>
       </c>
       <c r="D16">
-        <v>12.27225772869728</v>
+        <v>5.705879486852401</v>
       </c>
       <c r="E16">
-        <v>37.30120286040043</v>
+        <v>10.05868516653791</v>
       </c>
       <c r="F16">
-        <v>77.76876743014284</v>
+        <v>20.24914138363442</v>
       </c>
       <c r="G16">
-        <v>2.048417429571088</v>
+        <v>25.74306129352703</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.777194407522703</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.247485668939555</v>
       </c>
       <c r="K16">
-        <v>15.59958497170111</v>
+        <v>13.29965087914534</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.00645969227218</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1165,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.19004537500432</v>
+        <v>16.36557089688781</v>
       </c>
       <c r="C17">
-        <v>9.785474458503471</v>
+        <v>10.09104056212659</v>
       </c>
       <c r="D17">
-        <v>12.06611535219726</v>
+        <v>5.529448085909783</v>
       </c>
       <c r="E17">
-        <v>36.35040637231811</v>
+        <v>12.29855219723625</v>
       </c>
       <c r="F17">
-        <v>76.16424285958236</v>
+        <v>20.78322938000067</v>
       </c>
       <c r="G17">
-        <v>2.05445945426011</v>
+        <v>26.78122617213195</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.060846899873025</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.490301958344487</v>
       </c>
       <c r="K17">
-        <v>15.21923447813492</v>
+        <v>13.75436397317532</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.7515231181998</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1215,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.93585355736098</v>
+        <v>16.14450913526577</v>
       </c>
       <c r="C18">
-        <v>9.637701046415632</v>
+        <v>10.19885569028661</v>
       </c>
       <c r="D18">
-        <v>11.94724326948085</v>
+        <v>5.282130202069057</v>
       </c>
       <c r="E18">
-        <v>35.80113138149256</v>
+        <v>17.04181769879729</v>
       </c>
       <c r="F18">
-        <v>75.2362469810414</v>
+        <v>22.02038674307633</v>
       </c>
       <c r="G18">
-        <v>2.057922285128603</v>
+        <v>29.03859716189088</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.962672562157295</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.936674544400145</v>
       </c>
       <c r="K18">
-        <v>14.99906861339972</v>
+        <v>14.55681587100419</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.64610761188939</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1265,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.84947405577971</v>
+        <v>16.05144578522455</v>
       </c>
       <c r="C19">
-        <v>9.587571710993251</v>
+        <v>10.45810851006948</v>
       </c>
       <c r="D19">
-        <v>11.9069382506357</v>
+        <v>5.016106793387548</v>
       </c>
       <c r="E19">
-        <v>35.61470036632031</v>
+        <v>23.44362657133027</v>
       </c>
       <c r="F19">
-        <v>74.92113179039951</v>
+        <v>23.72202571753856</v>
       </c>
       <c r="G19">
-        <v>2.059092948683817</v>
+        <v>32.097341611819</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.879158739540971</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.52345116951665</v>
       </c>
       <c r="K19">
-        <v>14.92427069641495</v>
+        <v>15.60866758606845</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.67527083376548</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1315,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.23694448436325</v>
+        <v>16.32508256640736</v>
       </c>
       <c r="C20">
-        <v>9.812781208276144</v>
+        <v>11.11731417580809</v>
       </c>
       <c r="D20">
-        <v>12.08808992269221</v>
+        <v>4.709852182601305</v>
       </c>
       <c r="E20">
-        <v>36.45185836190883</v>
+        <v>33.67847539963039</v>
       </c>
       <c r="F20">
-        <v>76.33556860661457</v>
+        <v>26.61153821014813</v>
       </c>
       <c r="G20">
-        <v>2.05381763302869</v>
+        <v>37.18334961939883</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.487500497185581</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.47477078264879</v>
       </c>
       <c r="K20">
-        <v>15.25986492265206</v>
+        <v>17.3019626215104</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.07845044982998</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1365,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51903897717073</v>
+        <v>17.29539198597778</v>
       </c>
       <c r="C21">
-        <v>10.56453717855506</v>
+        <v>11.8147603494209</v>
       </c>
       <c r="D21">
-        <v>12.69348977511485</v>
+        <v>4.748422488275771</v>
       </c>
       <c r="E21">
-        <v>39.23940293087072</v>
+        <v>36.52769096589372</v>
       </c>
       <c r="F21">
-        <v>81.02953773641919</v>
+        <v>27.86457024138805</v>
       </c>
       <c r="G21">
-        <v>2.035918423430066</v>
+        <v>39.13774160950881</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.858521527927951</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.74218737816461</v>
       </c>
       <c r="K21">
-        <v>16.37178038546273</v>
+        <v>17.69963009457796</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.94228692266941</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1415,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34505167537053</v>
+        <v>17.90512360537189</v>
       </c>
       <c r="C22">
-        <v>11.05450753807047</v>
+        <v>12.23211274639517</v>
       </c>
       <c r="D22">
-        <v>13.08773832304826</v>
+        <v>4.786098722971093</v>
       </c>
       <c r="E22">
-        <v>41.05118049739585</v>
+        <v>37.87898933450035</v>
       </c>
       <c r="F22">
-        <v>84.06093779563648</v>
+        <v>28.55964650014331</v>
       </c>
       <c r="G22">
-        <v>2.024023253354891</v>
+        <v>40.19180954161271</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.077791561174315</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.87854479097725</v>
       </c>
       <c r="K22">
-        <v>17.08947382758577</v>
+        <v>17.89074337671454</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.47876242262076</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1465,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.90508343905093</v>
+        <v>17.58198618261865</v>
       </c>
       <c r="C23">
-        <v>10.79295919910309</v>
+        <v>12.01084406027656</v>
       </c>
       <c r="D23">
-        <v>12.87737608822606</v>
+        <v>4.766133866564647</v>
       </c>
       <c r="E23">
-        <v>40.08449410800627</v>
+        <v>37.16268808168038</v>
       </c>
       <c r="F23">
-        <v>82.44582817268743</v>
+        <v>28.18871203605517</v>
       </c>
       <c r="G23">
-        <v>2.030394697474126</v>
+        <v>39.62945268400366</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.96106124985404</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.80525105547576</v>
       </c>
       <c r="K23">
-        <v>16.70706391916245</v>
+        <v>17.78769189701434</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.19433502775121</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1515,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.21574723693564</v>
+        <v>16.30760419123749</v>
       </c>
       <c r="C24">
-        <v>9.800437591311436</v>
+        <v>11.14009958837312</v>
       </c>
       <c r="D24">
-        <v>12.07815634764454</v>
+        <v>4.68740096382154</v>
       </c>
       <c r="E24">
-        <v>36.4060002857472</v>
+        <v>34.34106757368768</v>
       </c>
       <c r="F24">
-        <v>76.25812956293015</v>
+        <v>26.78341215919864</v>
       </c>
       <c r="G24">
-        <v>2.054107833185187</v>
+        <v>37.49535846892513</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.512144891481892</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.53884682169534</v>
       </c>
       <c r="K24">
-        <v>15.24150059793919</v>
+        <v>17.4200287150445</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.07521023929078</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1565,60 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32534258410977</v>
+        <v>14.82329154247861</v>
       </c>
       <c r="C25">
-        <v>8.710033840256374</v>
+        <v>10.1297798420147</v>
       </c>
       <c r="D25">
-        <v>11.20410068181421</v>
+        <v>4.596048684623988</v>
       </c>
       <c r="E25">
-        <v>32.34241105512557</v>
+        <v>31.06011443920689</v>
       </c>
       <c r="F25">
-        <v>69.38585310746174</v>
+        <v>25.2701861110343</v>
       </c>
       <c r="G25">
-        <v>2.079243927110146</v>
+        <v>35.18897667185833</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.011737344731697</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.27425742154678</v>
       </c>
       <c r="K25">
-        <v>13.60593272835668</v>
+        <v>17.06886843835512</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.7777083279924</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.63443363620444</v>
+        <v>13.51771248927432</v>
       </c>
       <c r="C2">
-        <v>9.323714996673335</v>
+        <v>10.05880838769891</v>
       </c>
       <c r="D2">
-        <v>4.52349368296375</v>
+        <v>4.624950568848184</v>
       </c>
       <c r="E2">
-        <v>28.43498935461029</v>
+        <v>28.44954941222107</v>
       </c>
       <c r="F2">
-        <v>24.16271448355245</v>
+        <v>22.5864677470675</v>
       </c>
       <c r="G2">
-        <v>33.49324153395113</v>
+        <v>30.18856613020236</v>
       </c>
       <c r="H2">
-        <v>2.627808080162262</v>
+        <v>2.638608855635163</v>
       </c>
       <c r="J2">
-        <v>11.09783122245693</v>
+        <v>10.92212958227174</v>
       </c>
       <c r="K2">
-        <v>16.84628188510197</v>
+        <v>15.49871346006037</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.35152664869208</v>
       </c>
       <c r="M2">
-        <v>12.74411093851313</v>
+        <v>9.712968769153891</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.89249989043259</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -471,49 +477,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76824777305549</v>
+        <v>12.6971242809736</v>
       </c>
       <c r="C3">
-        <v>8.73833172099927</v>
+        <v>9.3497934957757</v>
       </c>
       <c r="D3">
-        <v>4.471146311505629</v>
+        <v>4.530469460634091</v>
       </c>
       <c r="E3">
-        <v>26.52288376334341</v>
+        <v>26.5570654181615</v>
       </c>
       <c r="F3">
-        <v>23.41921175793576</v>
+        <v>22.01439761543798</v>
       </c>
       <c r="G3">
-        <v>32.3497715882216</v>
+        <v>29.37627649840111</v>
       </c>
       <c r="H3">
-        <v>2.357236406744417</v>
+        <v>2.382664126344378</v>
       </c>
       <c r="J3">
-        <v>10.98911355696365</v>
+        <v>10.83092568370407</v>
       </c>
       <c r="K3">
-        <v>16.71624593105536</v>
+        <v>15.49354771204688</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.45642879487834</v>
       </c>
       <c r="M3">
-        <v>11.99488328480369</v>
+        <v>9.580412437859339</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.1340699842893</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -521,49 +533,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20643949525503</v>
+        <v>12.16508306600827</v>
       </c>
       <c r="C4">
-        <v>8.359582628368594</v>
+        <v>8.889842978388259</v>
       </c>
       <c r="D4">
-        <v>4.437482795777373</v>
+        <v>4.470694283215162</v>
       </c>
       <c r="E4">
-        <v>25.2824819293605</v>
+        <v>25.32891478025741</v>
       </c>
       <c r="F4">
-        <v>22.96727247609152</v>
+        <v>21.66801274498714</v>
       </c>
       <c r="G4">
-        <v>31.65219846680461</v>
+        <v>28.88912455380489</v>
       </c>
       <c r="H4">
-        <v>2.185762302881458</v>
+        <v>2.220311322025391</v>
       </c>
       <c r="J4">
-        <v>10.92749372780898</v>
+        <v>10.77678976140434</v>
       </c>
       <c r="K4">
-        <v>16.64610652477264</v>
+        <v>15.49760650309955</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.52237814305395</v>
       </c>
       <c r="M4">
-        <v>11.51096176060826</v>
+        <v>9.524935084009643</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.64408699681331</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -571,49 +589,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.96995437153079</v>
+        <v>11.94120228662895</v>
       </c>
       <c r="C5">
-        <v>8.200386876458875</v>
+        <v>8.696204167402222</v>
       </c>
       <c r="D5">
-        <v>4.423389018746055</v>
+        <v>4.445910983877599</v>
       </c>
       <c r="E5">
-        <v>24.7602207453073</v>
+        <v>24.81172009852582</v>
       </c>
       <c r="F5">
-        <v>22.78443315548251</v>
+        <v>21.52816163979322</v>
       </c>
       <c r="G5">
-        <v>31.36934988015538</v>
+        <v>28.69357725372969</v>
       </c>
       <c r="H5">
-        <v>2.114511022019727</v>
+        <v>2.152816759370539</v>
       </c>
       <c r="J5">
-        <v>10.90364070206777</v>
+        <v>10.75518446702907</v>
       </c>
       <c r="K5">
-        <v>16.61987850852296</v>
+        <v>15.50098589016654</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.5496403581849</v>
       </c>
       <c r="M5">
-        <v>11.30779339741041</v>
+        <v>9.508813290879413</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.43836211216062</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -621,49 +645,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.93023053827826</v>
+        <v>11.90360094028566</v>
       </c>
       <c r="C6">
-        <v>8.173659851885462</v>
+        <v>8.663675480486162</v>
       </c>
       <c r="D6">
-        <v>4.421026284504793</v>
+        <v>4.441770680539483</v>
       </c>
       <c r="E6">
-        <v>24.6724829632885</v>
+        <v>24.72482878737583</v>
       </c>
       <c r="F6">
-        <v>22.75415850247018</v>
+        <v>21.50502050851602</v>
       </c>
       <c r="G6">
-        <v>31.32247727140145</v>
+        <v>28.66128767895594</v>
       </c>
       <c r="H6">
-        <v>2.102595924345496</v>
+        <v>2.141527984749427</v>
       </c>
       <c r="J6">
-        <v>10.8997548743095</v>
+        <v>10.75162404979448</v>
       </c>
       <c r="K6">
-        <v>16.61566301169599</v>
+        <v>15.5016485709787</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.55419063830436</v>
       </c>
       <c r="M6">
-        <v>11.27369866292713</v>
+        <v>9.506526066645849</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.40383819004554</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -671,49 +701,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20328072194725</v>
+        <v>12.16330641543206</v>
       </c>
       <c r="C7">
-        <v>8.357455290558665</v>
+        <v>8.878199345701374</v>
       </c>
       <c r="D7">
-        <v>4.437294233462322</v>
+        <v>4.473400073734543</v>
       </c>
       <c r="E7">
-        <v>25.27550663183012</v>
+        <v>25.32135899609002</v>
       </c>
       <c r="F7">
-        <v>22.96480101542274</v>
+        <v>21.63669869058183</v>
       </c>
       <c r="G7">
-        <v>31.64837774621024</v>
+        <v>28.9511690444665</v>
       </c>
       <c r="H7">
-        <v>2.18480698720343</v>
+        <v>2.218927177541751</v>
       </c>
       <c r="J7">
-        <v>10.9271669908915</v>
+        <v>10.72476344061547</v>
       </c>
       <c r="K7">
-        <v>16.64574338680744</v>
+        <v>15.48140528162147</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.50940625968047</v>
       </c>
       <c r="M7">
-        <v>11.50824585070646</v>
+        <v>9.513337079803989</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.63925859741703</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -721,49 +757,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34198415177245</v>
+        <v>13.244418336516</v>
       </c>
       <c r="C8">
-        <v>9.125885521167405</v>
+        <v>9.791650634102917</v>
       </c>
       <c r="D8">
-        <v>4.505764377058472</v>
+        <v>4.603100540748612</v>
       </c>
       <c r="E8">
-        <v>27.78940599437246</v>
+        <v>27.80870296330083</v>
       </c>
       <c r="F8">
-        <v>23.90551029883513</v>
+        <v>22.29415998606545</v>
       </c>
       <c r="G8">
-        <v>33.09819723272533</v>
+        <v>30.11487157114844</v>
       </c>
       <c r="H8">
-        <v>2.535604654243386</v>
+        <v>2.549941026563312</v>
       </c>
       <c r="J8">
-        <v>11.05926043402789</v>
+        <v>10.72211486589337</v>
       </c>
       <c r="K8">
-        <v>16.79938088399949</v>
+        <v>15.44242386607336</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.34624774134548</v>
       </c>
       <c r="M8">
-        <v>12.49075570157537</v>
+        <v>9.621864186881522</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.62966452565053</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -771,49 +813,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33809390176014</v>
+        <v>15.13599318386903</v>
       </c>
       <c r="C9">
-        <v>10.47970698575684</v>
+        <v>11.42193015397134</v>
       </c>
       <c r="D9">
-        <v>4.627659123508573</v>
+        <v>4.831408863585487</v>
       </c>
       <c r="E9">
-        <v>32.19749638925871</v>
+        <v>32.16771081944896</v>
       </c>
       <c r="F9">
-        <v>25.77921580266321</v>
+        <v>23.72760013287976</v>
       </c>
       <c r="G9">
-        <v>35.965993686944</v>
+        <v>32.24562494670886</v>
       </c>
       <c r="H9">
-        <v>3.182604934305439</v>
+        <v>3.160774699401573</v>
       </c>
       <c r="J9">
-        <v>11.36044749121412</v>
+        <v>10.91954457784092</v>
       </c>
       <c r="K9">
-        <v>17.18135894262651</v>
+        <v>15.48689914611264</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.08715065310752</v>
       </c>
       <c r="M9">
-        <v>14.22691160150057</v>
+        <v>10.08149546853385</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.38498522841309</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -821,49 +869,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.66342238575121</v>
+        <v>16.40116048172221</v>
       </c>
       <c r="C10">
-        <v>11.33903541900473</v>
+        <v>12.40252231505997</v>
       </c>
       <c r="D10">
-        <v>4.736996387514248</v>
+        <v>5.038068756879449</v>
       </c>
       <c r="E10">
-        <v>34.24369724580941</v>
+        <v>34.17534196915541</v>
       </c>
       <c r="F10">
-        <v>26.92440518124285</v>
+        <v>24.44644157393005</v>
       </c>
       <c r="G10">
-        <v>37.64569266136989</v>
+        <v>33.82169893461707</v>
       </c>
       <c r="H10">
-        <v>3.597726924693731</v>
+        <v>3.548460150142419</v>
       </c>
       <c r="J10">
-        <v>11.52335149790356</v>
+        <v>10.72891217773274</v>
       </c>
       <c r="K10">
-        <v>17.35965672840499</v>
+        <v>15.35467779445622</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.76017726644358</v>
       </c>
       <c r="M10">
-        <v>15.37196404021985</v>
+        <v>10.36479534108963</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.52933370301483</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -871,49 +925,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.25158930687842</v>
+        <v>17.01165360711292</v>
       </c>
       <c r="C11">
-        <v>11.34801034149064</v>
+        <v>12.24403297648972</v>
       </c>
       <c r="D11">
-        <v>5.054741117821443</v>
+        <v>5.449318005336799</v>
       </c>
       <c r="E11">
-        <v>27.61472135575491</v>
+        <v>27.53299164678398</v>
       </c>
       <c r="F11">
-        <v>25.37679288279821</v>
+        <v>22.76382775042602</v>
       </c>
       <c r="G11">
-        <v>34.71870448800804</v>
+        <v>31.92332055937486</v>
       </c>
       <c r="H11">
-        <v>4.032193506388904</v>
+        <v>3.983590788591613</v>
       </c>
       <c r="J11">
-        <v>10.86387469323396</v>
+        <v>9.646427948614345</v>
       </c>
       <c r="K11">
-        <v>16.1116185867125</v>
+        <v>14.14116739242269</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.83501877351591</v>
       </c>
       <c r="M11">
-        <v>15.75222523746375</v>
+        <v>9.518451024976432</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.87304325186356</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -921,49 +981,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.48410162598736</v>
+        <v>17.27136595656001</v>
       </c>
       <c r="C12">
-        <v>11.18491016740444</v>
+        <v>11.938706265044</v>
       </c>
       <c r="D12">
-        <v>5.335263601184043</v>
+        <v>5.7675807553157</v>
       </c>
       <c r="E12">
-        <v>21.59748600132349</v>
+        <v>21.50981168905522</v>
       </c>
       <c r="F12">
-        <v>23.8067458535491</v>
+        <v>21.26349860019469</v>
       </c>
       <c r="G12">
-        <v>31.8590732125663</v>
+        <v>29.74556153790225</v>
       </c>
       <c r="H12">
-        <v>4.93156585123291</v>
+        <v>4.893487485965379</v>
       </c>
       <c r="J12">
-        <v>10.2712752340531</v>
+        <v>8.991274113699724</v>
       </c>
       <c r="K12">
-        <v>15.02616179328717</v>
+        <v>13.22091890783791</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.20186787508768</v>
       </c>
       <c r="M12">
-        <v>15.84568832995435</v>
+        <v>8.778704313822058</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.94047015198867</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -971,49 +1037,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46486067748274</v>
+        <v>17.28220947363939</v>
       </c>
       <c r="C13">
-        <v>10.87565663553644</v>
+        <v>11.51059222509185</v>
       </c>
       <c r="D13">
-        <v>5.597493556096826</v>
+        <v>6.013511437735461</v>
       </c>
       <c r="E13">
-        <v>15.53259776675079</v>
+        <v>15.44287680977888</v>
       </c>
       <c r="F13">
-        <v>22.08974720465276</v>
+        <v>19.84350043427954</v>
       </c>
       <c r="G13">
-        <v>28.81227571740371</v>
+        <v>27.02087354073767</v>
       </c>
       <c r="H13">
-        <v>6.026815503540697</v>
+        <v>6.000319858877283</v>
       </c>
       <c r="J13">
-        <v>9.692228265559839</v>
+        <v>8.667976564632918</v>
       </c>
       <c r="K13">
-        <v>14.00060014260163</v>
+        <v>12.49816088384055</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.75133632060077</v>
       </c>
       <c r="M13">
-        <v>15.72745817342092</v>
+        <v>8.107926891708328</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.80579754589568</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1021,49 +1093,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.33827358376848</v>
+        <v>17.17809408960541</v>
       </c>
       <c r="C14">
-        <v>10.5903615187021</v>
+        <v>11.15007071055141</v>
       </c>
       <c r="D14">
-        <v>5.774161849915506</v>
+        <v>6.152511415118244</v>
       </c>
       <c r="E14">
-        <v>11.26290546757948</v>
+        <v>11.1703371694243</v>
       </c>
       <c r="F14">
-        <v>20.81005392934239</v>
+        <v>18.87259568156163</v>
       </c>
       <c r="G14">
-        <v>26.57441036719388</v>
+        <v>24.85657612983455</v>
       </c>
       <c r="H14">
-        <v>6.867061313442941</v>
+        <v>6.847619329027196</v>
       </c>
       <c r="J14">
-        <v>9.296733984942824</v>
+        <v>8.563354007639052</v>
       </c>
       <c r="K14">
-        <v>13.32160846607747</v>
+        <v>12.08234351545903</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.5105679586588</v>
       </c>
       <c r="M14">
-        <v>15.54857151419309</v>
+        <v>7.675303326891984</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.61916914095623</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1071,49 +1149,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.25244441816909</v>
+        <v>17.09867559749769</v>
       </c>
       <c r="C15">
-        <v>10.48778867425011</v>
+        <v>11.03239554101252</v>
       </c>
       <c r="D15">
-        <v>5.808886846131355</v>
+        <v>6.168065085913081</v>
       </c>
       <c r="E15">
-        <v>10.21155352984648</v>
+        <v>10.12003477463474</v>
       </c>
       <c r="F15">
-        <v>20.4681153518571</v>
+        <v>18.64846910618491</v>
       </c>
       <c r="G15">
-        <v>25.99076110435045</v>
+        <v>24.22828205466452</v>
       </c>
       <c r="H15">
-        <v>7.059650512401465</v>
+        <v>7.04225029843622</v>
       </c>
       <c r="J15">
-        <v>9.204344153149282</v>
+        <v>8.586641542316881</v>
       </c>
       <c r="K15">
-        <v>13.17046181819758</v>
+        <v>12.01550354747635</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.47863662744122</v>
       </c>
       <c r="M15">
-        <v>15.45828622262256</v>
+        <v>7.585142167591117</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.52883465006525</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1121,49 +1205,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.71622266344857</v>
+        <v>16.57307996718943</v>
       </c>
       <c r="C16">
-        <v>10.17635992519292</v>
+        <v>10.74556824656266</v>
       </c>
       <c r="D16">
-        <v>5.705879486852401</v>
+        <v>5.985768894896265</v>
       </c>
       <c r="E16">
-        <v>10.05868516653791</v>
+        <v>9.996352611069776</v>
       </c>
       <c r="F16">
-        <v>20.24914138363442</v>
+        <v>18.78210080727709</v>
       </c>
       <c r="G16">
-        <v>25.74306129352703</v>
+        <v>23.47779649084921</v>
       </c>
       <c r="H16">
-        <v>6.777194407522703</v>
+        <v>6.765441665842882</v>
       </c>
       <c r="J16">
-        <v>9.247485668939555</v>
+        <v>9.028123426505486</v>
       </c>
       <c r="K16">
-        <v>13.29965087914534</v>
+        <v>12.31784641877852</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.72034837652783</v>
       </c>
       <c r="M16">
-        <v>15.00645969227218</v>
+        <v>7.715490819573032</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.09346418808919</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1171,49 +1261,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.36557089688781</v>
+        <v>16.22020942526606</v>
       </c>
       <c r="C17">
-        <v>10.09104056212659</v>
+        <v>10.71125560230389</v>
       </c>
       <c r="D17">
-        <v>5.529448085909783</v>
+        <v>5.778499540310933</v>
       </c>
       <c r="E17">
-        <v>12.29855219723625</v>
+        <v>12.25568492364783</v>
       </c>
       <c r="F17">
-        <v>20.78322938000067</v>
+        <v>19.38318956586393</v>
       </c>
       <c r="G17">
-        <v>26.78122617213195</v>
+        <v>24.17176746409751</v>
       </c>
       <c r="H17">
-        <v>6.060846899873025</v>
+        <v>6.050773050334359</v>
       </c>
       <c r="J17">
-        <v>9.490301958344487</v>
+        <v>9.401873529747162</v>
       </c>
       <c r="K17">
-        <v>13.75436397317532</v>
+        <v>12.75814881744847</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.04151242441734</v>
       </c>
       <c r="M17">
-        <v>14.7515231181998</v>
+        <v>8.024864918387884</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.85331662280184</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1221,49 +1317,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14450913526577</v>
+        <v>15.98271979330253</v>
       </c>
       <c r="C18">
-        <v>10.19885569028661</v>
+        <v>10.91429415482047</v>
       </c>
       <c r="D18">
-        <v>5.282130202069057</v>
+        <v>5.524769096017272</v>
       </c>
       <c r="E18">
-        <v>17.04181769879729</v>
+        <v>17.00737767049302</v>
       </c>
       <c r="F18">
-        <v>22.02038674307633</v>
+        <v>20.50455386389129</v>
       </c>
       <c r="G18">
-        <v>29.03859716189088</v>
+        <v>26.04679593194016</v>
       </c>
       <c r="H18">
-        <v>4.962672562157295</v>
+        <v>4.950766437002589</v>
       </c>
       <c r="J18">
-        <v>9.936674544400145</v>
+        <v>9.838689877712262</v>
       </c>
       <c r="K18">
-        <v>14.55681587100419</v>
+        <v>13.41267783804165</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.50587727267261</v>
       </c>
       <c r="M18">
-        <v>14.64610761188939</v>
+        <v>8.54683664273359</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.76592740008154</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1271,49 +1373,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05144578522455</v>
+        <v>15.86146120474483</v>
       </c>
       <c r="C19">
-        <v>10.45810851006948</v>
+        <v>11.3023827176592</v>
       </c>
       <c r="D19">
-        <v>5.016106793387548</v>
+        <v>5.261085892519834</v>
       </c>
       <c r="E19">
-        <v>23.44362657133027</v>
+        <v>23.40786253765163</v>
       </c>
       <c r="F19">
-        <v>23.72202571753856</v>
+        <v>21.9756100610594</v>
       </c>
       <c r="G19">
-        <v>32.097341611819</v>
+        <v>28.66781182717075</v>
       </c>
       <c r="H19">
-        <v>3.879158739540971</v>
+        <v>3.860327012376576</v>
       </c>
       <c r="J19">
-        <v>10.52345116951665</v>
+        <v>10.33385545675346</v>
       </c>
       <c r="K19">
-        <v>15.60866758606845</v>
+        <v>14.22695182158981</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.07867890414594</v>
       </c>
       <c r="M19">
-        <v>14.67527083376548</v>
+        <v>9.223700437256063</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.81495372399301</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1321,49 +1429,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.32508256640736</v>
+        <v>16.07499883972714</v>
       </c>
       <c r="C20">
-        <v>11.11731417580809</v>
+        <v>12.17422855149407</v>
       </c>
       <c r="D20">
-        <v>4.709852182601305</v>
+        <v>4.973907878057319</v>
       </c>
       <c r="E20">
-        <v>33.67847539963039</v>
+        <v>33.62224192853627</v>
       </c>
       <c r="F20">
-        <v>26.61153821014813</v>
+        <v>24.33737558674515</v>
       </c>
       <c r="G20">
-        <v>37.18334961939883</v>
+        <v>33.18158883299566</v>
       </c>
       <c r="H20">
-        <v>3.487500497185581</v>
+        <v>3.446797206724294</v>
       </c>
       <c r="J20">
-        <v>11.47477078264879</v>
+        <v>10.94568171704874</v>
       </c>
       <c r="K20">
-        <v>17.3019626215104</v>
+        <v>15.43529142046253</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.87815473112108</v>
       </c>
       <c r="M20">
-        <v>15.07845044982998</v>
+        <v>10.32447907441875</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.24186604226348</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1371,49 +1485,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.29539198597778</v>
+        <v>17.01166931340139</v>
       </c>
       <c r="C21">
-        <v>11.8147603494209</v>
+        <v>12.85928591360529</v>
       </c>
       <c r="D21">
-        <v>4.748422488275771</v>
+        <v>5.145108572831182</v>
       </c>
       <c r="E21">
-        <v>36.52769096589372</v>
+        <v>36.43008429371331</v>
       </c>
       <c r="F21">
-        <v>27.86457024138805</v>
+        <v>24.74129567888373</v>
       </c>
       <c r="G21">
-        <v>39.13774160950881</v>
+        <v>36.04722506278033</v>
       </c>
       <c r="H21">
-        <v>3.858521527927951</v>
+        <v>3.788458014765465</v>
       </c>
       <c r="J21">
-        <v>11.74218737816461</v>
+        <v>10.03946260522322</v>
       </c>
       <c r="K21">
-        <v>17.69963009457796</v>
+        <v>15.24770154504404</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.56852161269132</v>
       </c>
       <c r="M21">
-        <v>15.94228692266941</v>
+        <v>10.48953436944932</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.07836922658243</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1421,49 +1541,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.90512360537189</v>
+        <v>17.60363017319209</v>
       </c>
       <c r="C22">
-        <v>12.23211274639517</v>
+        <v>13.25156632583859</v>
       </c>
       <c r="D22">
-        <v>4.786098722971093</v>
+        <v>5.277217454896497</v>
       </c>
       <c r="E22">
-        <v>37.87898933450035</v>
+        <v>37.75462561572537</v>
       </c>
       <c r="F22">
-        <v>28.55964650014331</v>
+        <v>24.87720269566293</v>
       </c>
       <c r="G22">
-        <v>40.19180954161271</v>
+        <v>37.79965796242513</v>
       </c>
       <c r="H22">
-        <v>4.077791561174315</v>
+        <v>3.989182391502714</v>
       </c>
       <c r="J22">
-        <v>11.87854479097725</v>
+        <v>9.394118439977071</v>
       </c>
       <c r="K22">
-        <v>17.89074337671454</v>
+        <v>15.05155452966112</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.31741403987621</v>
       </c>
       <c r="M22">
-        <v>16.47876242262076</v>
+        <v>10.54504378294635</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.59438751964533</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1471,49 +1597,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.58198618261865</v>
+        <v>17.28737239773327</v>
       </c>
       <c r="C23">
-        <v>12.01084406027656</v>
+        <v>13.06096899886711</v>
       </c>
       <c r="D23">
-        <v>4.766133866564647</v>
+        <v>5.197741462817876</v>
       </c>
       <c r="E23">
-        <v>37.16268808168038</v>
+        <v>37.05375864557347</v>
       </c>
       <c r="F23">
-        <v>28.18871203605517</v>
+        <v>24.86928676081276</v>
       </c>
       <c r="G23">
-        <v>39.62945268400366</v>
+        <v>36.71580763295218</v>
       </c>
       <c r="H23">
-        <v>3.96106124985404</v>
+        <v>3.883145404334697</v>
       </c>
       <c r="J23">
-        <v>11.80525105547576</v>
+        <v>9.847793094052353</v>
       </c>
       <c r="K23">
-        <v>17.78769189701434</v>
+        <v>15.19544142287666</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.47705555787942</v>
       </c>
       <c r="M23">
-        <v>16.19433502775121</v>
+        <v>10.54781604886752</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.3248010982819</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1521,49 +1653,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.30760419123749</v>
+        <v>16.05461400449535</v>
       </c>
       <c r="C24">
-        <v>11.14009958837312</v>
+        <v>12.21024780507386</v>
       </c>
       <c r="D24">
-        <v>4.68740096382154</v>
+        <v>4.948102016222633</v>
       </c>
       <c r="E24">
-        <v>34.34106757368768</v>
+        <v>34.2843904126396</v>
       </c>
       <c r="F24">
-        <v>26.78341215919864</v>
+        <v>24.49037024291213</v>
       </c>
       <c r="G24">
-        <v>37.49535846892513</v>
+        <v>33.44163405941962</v>
       </c>
       <c r="H24">
-        <v>3.512144891481892</v>
+        <v>3.471018594412115</v>
       </c>
       <c r="J24">
-        <v>11.53884682169534</v>
+        <v>11.00718899669303</v>
       </c>
       <c r="K24">
-        <v>17.4200287150445</v>
+        <v>15.53115145684339</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.94869782501604</v>
       </c>
       <c r="M24">
-        <v>15.07521023929078</v>
+        <v>10.39915341325822</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.24062419869081</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1571,54 +1709,66 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.82329154247861</v>
+        <v>14.64674801858438</v>
       </c>
       <c r="C25">
-        <v>10.1297798420147</v>
+        <v>11.01233575309714</v>
       </c>
       <c r="D25">
-        <v>4.596048684623988</v>
+        <v>4.76682465358919</v>
       </c>
       <c r="E25">
-        <v>31.06011443920689</v>
+        <v>31.04446038592833</v>
       </c>
       <c r="F25">
-        <v>25.2701861110343</v>
+        <v>23.37466113082849</v>
       </c>
       <c r="G25">
-        <v>35.18897667185833</v>
+        <v>31.57467702572816</v>
       </c>
       <c r="H25">
-        <v>3.011737344731697</v>
+        <v>3.000213344108332</v>
       </c>
       <c r="J25">
-        <v>11.27425742154678</v>
+        <v>10.93469067686847</v>
       </c>
       <c r="K25">
-        <v>17.06886843835512</v>
+        <v>15.48986109692246</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.17213897790893</v>
       </c>
       <c r="M25">
-        <v>13.7777083279924</v>
+        <v>9.953400761144534</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.93361316728735</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
